--- a/Measurements/Test 2 - Chair obstacle/Statistics.xlsx
+++ b/Measurements/Test 2 - Chair obstacle/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\CodeFromGithub\SerialPortRead\Vamia-SerialPortReading\Measurements\Test 2 - Chair obstacle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80873A1-538F-4B02-BF1B-2D217942C4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B676F945-407F-40FE-B5A2-4B3C2BD07EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2585,15 +2585,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>1.3266499161421601</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -2638,8 +2638,16 @@
         <f>10*$G$1*LOG(A3/100,10)+$F$1</f>
         <v>46.420599913279624</v>
       </c>
+      <c r="H3">
+        <f>A3/100</f>
+        <v>0.2</v>
+      </c>
+      <c r="I3">
+        <f>POWER(10, (B3-$F$1)/(10*$G$1))</f>
+        <v>0.48977881936844647</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>40</v>
       </c>
@@ -2659,8 +2667,16 @@
         <f t="shared" ref="F4:F21" si="0">10*$G$1*LOG(A4/100,10)+$F$1</f>
         <v>52.441199826559249</v>
       </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H21" si="1">A4/100</f>
+        <v>0.4</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I21" si="2">POWER(10, (B4-$F$1)/(10*$G$1))</f>
+        <v>1.0964781961431855</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>60</v>
       </c>
@@ -2680,8 +2696,16 @@
         <f t="shared" si="0"/>
         <v>55.963025007672869</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>1.4454397707459281</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>80</v>
       </c>
@@ -2701,8 +2725,16 @@
         <f t="shared" si="0"/>
         <v>58.461799739838874</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>1.0964781961431855</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -2722,8 +2754,16 @@
         <f t="shared" si="0"/>
         <v>60.4</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>120</v>
       </c>
@@ -2743,8 +2783,16 @@
         <f t="shared" si="0"/>
         <v>61.983624920952494</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.85113803820237666</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>140</v>
       </c>
@@ -2764,8 +2812,16 @@
         <f t="shared" si="0"/>
         <v>63.322560713564755</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>1.148153621496883</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>160</v>
       </c>
@@ -2785,8 +2841,16 @@
         <f t="shared" si="0"/>
         <v>64.482399653118492</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>1.5488166189124821</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>180</v>
       </c>
@@ -2806,8 +2870,16 @@
         <f t="shared" si="0"/>
         <v>65.505450102066121</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>1.4454397707459281</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>200</v>
       </c>
@@ -2827,8 +2899,16 @@
         <f t="shared" si="0"/>
         <v>66.420599913279617</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>1.7782794100389243</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>240</v>
       </c>
@@ -2848,8 +2928,16 @@
         <f t="shared" si="0"/>
         <v>68.004224834232119</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>3.7153522909717256</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>280</v>
       </c>
@@ -2869,8 +2957,16 @@
         <f t="shared" si="0"/>
         <v>69.34316062684438</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>3.8018939632056128</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>320</v>
       </c>
@@ -2890,8 +2986,16 @@
         <f t="shared" si="0"/>
         <v>70.502999566398117</v>
       </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>2.570395782768863</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>360</v>
       </c>
@@ -2911,8 +3015,16 @@
         <f t="shared" si="0"/>
         <v>71.526050015345746</v>
       </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>2.3988329190194912</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>400</v>
       </c>
@@ -2932,8 +3044,16 @@
         <f t="shared" si="0"/>
         <v>72.441199826559242</v>
       </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>2.4547089156850319</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>440</v>
       </c>
@@ -2953,8 +3073,16 @@
         <f t="shared" si="0"/>
         <v>73.269053529723749</v>
       </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>3.8018939632056128</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>480</v>
       </c>
@@ -2974,8 +3102,16 @@
         <f t="shared" si="0"/>
         <v>74.024824747511744</v>
       </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>3.6307805477010127</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>520</v>
       </c>
@@ -2995,8 +3131,16 @@
         <f t="shared" si="0"/>
         <v>74.72006687269598</v>
       </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>7.7624711662869235</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>560</v>
       </c>
@@ -3015,6 +3159,14 @@
       <c r="F21">
         <f t="shared" si="0"/>
         <v>75.363760540124005</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>5.6</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>5.6234132519034956</v>
       </c>
     </row>
   </sheetData>

--- a/Measurements/Test 2 - Chair obstacle/Statistics.xlsx
+++ b/Measurements/Test 2 - Chair obstacle/Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\CodeFromGithub\SerialPortRead\Vamia-SerialPortReading\Measurements\Test 2 - Chair obstacle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B676F945-407F-40FE-B5A2-4B3C2BD07EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C225F57E-DA38-4BEE-9629-914F8CD3B0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5364" yWindow="552" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -834,61 +834,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>46.420599913279624</c:v>
+                  <c:v>45.121629908943603</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.441199826559249</c:v>
+                  <c:v>51.44325981788721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.963025007672869</c:v>
+                  <c:v>55.141176258056511</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.461799739838874</c:v>
+                  <c:v>57.764889726830816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.4</c:v>
+                  <c:v>59.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.983624920952494</c:v>
+                  <c:v>61.462806167000117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63.322560713564755</c:v>
+                  <c:v>62.868688749242992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.482399653118492</c:v>
+                  <c:v>64.086519635774422</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.505450102066121</c:v>
+                  <c:v>65.160722607169419</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.420599913279617</c:v>
+                  <c:v>66.121629908943603</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68.004224834232119</c:v>
+                  <c:v>67.784436075943717</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>69.34316062684438</c:v>
+                  <c:v>69.190318658186598</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70.502999566398117</c:v>
+                  <c:v>70.408149544718015</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>71.526050015345746</c:v>
+                  <c:v>71.482352516113025</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72.441199826559242</c:v>
+                  <c:v>72.44325981788721</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>73.269053529723749</c:v>
+                  <c:v>73.312506206209932</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74.024824747511744</c:v>
+                  <c:v>74.106065984887323</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>74.72006687269598</c:v>
+                  <c:v>74.836070216330782</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>75.363760540124005</c:v>
+                  <c:v>75.511948567130204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,10 +2269,10 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2587,8 +2587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2601,10 +2601,10 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>60.4</v>
+        <v>59.8</v>
       </c>
       <c r="G1">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="F3">
         <f>10*$G$1*LOG(A3/100,10)+$F$1</f>
-        <v>46.420599913279624</v>
+        <v>45.121629908943603</v>
       </c>
       <c r="H3">
         <f>A3/100</f>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="I3">
         <f>POWER(10, (B3-$F$1)/(10*$G$1))</f>
-        <v>0.48977881936844647</v>
+        <v>0.541169526546464</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F21" si="0">10*$G$1*LOG(A4/100,10)+$F$1</f>
-        <v>52.441199826559249</v>
+        <v>51.44325981788721</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H21" si="1">A4/100</f>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I21" si="2">POWER(10, (B4-$F$1)/(10*$G$1))</f>
-        <v>1.0964781961431855</v>
+        <v>1.1659144011798326</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>55.963025007672869</v>
+        <v>55.141176258056511</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>1.4454397707459281</v>
+        <v>1.5168840366944534</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>58.461799739838874</v>
+        <v>57.764889726830816</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>1.0964781961431855</v>
+        <v>1.1659144011798326</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>60.4</v>
+        <v>59.8</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.068000432514576</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>61.983624920952494</v>
+        <v>61.462806167000117</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>0.85113803820237666</v>
+        <v>0.91601959066105276</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>63.322560713564755</v>
+        <v>62.868688749242992</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>1.148153621496883</v>
+        <v>1.2181879120101162</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>64.482399653118492</v>
+        <v>64.086519635774422</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>1.5488166189124821</v>
+        <v>1.6200328072641321</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>65.505450102066121</v>
+        <v>65.160722607169419</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>1.4454397707459281</v>
+        <v>1.5168840366944534</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>66.420599913279617</v>
+        <v>66.121629908943603</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>1.7782794100389243</v>
+        <v>1.8478497974222927</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>68.004224834232119</v>
+        <v>67.784436075943717</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>3.7153522909717256</v>
+        <v>3.7275937203149403</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>69.34316062684438</v>
+        <v>69.190318658186598</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>3.8018939632056128</v>
+        <v>3.810240429946278</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>70.502999566398117</v>
+        <v>70.408149544718015</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>2.570395782768863</v>
+        <v>2.6245062966121004</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>71.526050015345746</v>
+        <v>71.482352516113025</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>2.3988329190194912</v>
+        <v>2.4574019042602622</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>72.441199826559242</v>
+        <v>72.44325981788721</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>2.4547089156850319</v>
+        <v>2.5118864315095815</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>73.269053529723749</v>
+        <v>73.312506206209932</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>3.8018939632056128</v>
+        <v>3.810240429946278</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>74.024824747511744</v>
+        <v>74.106065984887323</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>3.6307805477010127</v>
+        <v>3.6467396740964437</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>74.72006687269598</v>
+        <v>74.836070216330782</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>7.7624711662869235</v>
+        <v>7.5195261882835576</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>75.363760540124005</v>
+        <v>75.511948567130204</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>5.6234132519034956</v>
+        <v>5.5316811976172326</v>
       </c>
     </row>
   </sheetData>

--- a/Measurements/Test 2 - Chair obstacle/Statistics.xlsx
+++ b/Measurements/Test 2 - Chair obstacle/Statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\CodeFromGithub\SerialPortRead\Vamia-SerialPortReading\Measurements\Test 2 - Chair obstacle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\code\SerialReading\Measurements\Test 2 - Chair obstacle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C225F57E-DA38-4BEE-9629-914F8CD3B0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC884958-E3C0-40A0-BFE7-BC597729E2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5364" yWindow="552" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,32 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +77,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,17 +118,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,6 +565,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>ESP32 - Obstacles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -571,6 +628,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Real RSSI</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -737,6 +797,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Computed RSSI</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2585,15 +2648,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2607,7 +2673,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2618,7 +2684,7 @@
         <v>1.3266499161421601</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -2646,8 +2712,20 @@
         <f>POWER(10, (B3-$F$1)/(10*$G$1))</f>
         <v>0.541169526546464</v>
       </c>
+      <c r="J3">
+        <f>H3*100</f>
+        <v>20</v>
+      </c>
+      <c r="K3" s="2">
+        <f>I3*100</f>
+        <v>54.116952654646397</v>
+      </c>
+      <c r="L3" s="3">
+        <f>(K3-J3)/J3</f>
+        <v>1.7058476327323198</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40</v>
       </c>
@@ -2675,8 +2753,20 @@
         <f t="shared" ref="I4:I21" si="2">POWER(10, (B4-$F$1)/(10*$G$1))</f>
         <v>1.1659144011798326</v>
       </c>
+      <c r="J4">
+        <f t="shared" ref="J4:K21" si="3">H4*100</f>
+        <v>40</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="3"/>
+        <v>116.59144011798325</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" ref="L4:L21" si="4">(K4-J4)/J4</f>
+        <v>1.9147860029495813</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>60</v>
       </c>
@@ -2704,8 +2794,20 @@
         <f t="shared" si="2"/>
         <v>1.5168840366944534</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="3"/>
+        <v>151.68840366944534</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="4"/>
+        <v>1.5281400611574223</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>80</v>
       </c>
@@ -2733,8 +2835,20 @@
         <f t="shared" si="2"/>
         <v>1.1659144011798326</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="3"/>
+        <v>116.59144011798325</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="4"/>
+        <v>0.45739300147479067</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -2762,8 +2876,20 @@
         <f t="shared" si="2"/>
         <v>1.068000432514576</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="3"/>
+        <v>106.80004325145759</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="4"/>
+        <v>6.8000432514575951E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>120</v>
       </c>
@@ -2791,8 +2917,20 @@
         <f t="shared" si="2"/>
         <v>0.91601959066105276</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="3"/>
+        <v>91.60195906610528</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.23665034111578934</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>140</v>
       </c>
@@ -2820,8 +2958,20 @@
         <f t="shared" si="2"/>
         <v>1.2181879120101162</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="3"/>
+        <v>121.81879120101162</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.12986577713563127</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>160</v>
       </c>
@@ -2849,8 +2999,20 @@
         <f t="shared" si="2"/>
         <v>1.6200328072641321</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="3"/>
+        <v>162.00328072641321</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2520504540082555E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>180</v>
       </c>
@@ -2878,8 +3040,20 @@
         <f t="shared" si="2"/>
         <v>1.5168840366944534</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="3"/>
+        <v>151.68840366944534</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.15728664628085925</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>200</v>
       </c>
@@ -2907,8 +3081,20 @@
         <f t="shared" si="2"/>
         <v>1.8478497974222927</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="3"/>
+        <v>184.78497974222927</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="4"/>
+        <v>-7.6075101288853655E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>240</v>
       </c>
@@ -2936,8 +3122,20 @@
         <f t="shared" si="2"/>
         <v>3.7275937203149403</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="3"/>
+        <v>372.75937203149402</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="4"/>
+        <v>0.55316405013122505</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>280</v>
       </c>
@@ -2965,8 +3163,20 @@
         <f t="shared" si="2"/>
         <v>3.810240429946278</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="3"/>
+        <v>381.02404299462779</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="4"/>
+        <v>0.3608001535522421</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>320</v>
       </c>
@@ -2994,8 +3204,20 @@
         <f t="shared" si="2"/>
         <v>2.6245062966121004</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="3"/>
+        <v>262.45062966121003</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.17984178230871867</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>360</v>
       </c>
@@ -3023,8 +3245,20 @@
         <f t="shared" si="2"/>
         <v>2.4574019042602622</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="3"/>
+        <v>245.74019042602623</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.31738835992770492</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>400</v>
       </c>
@@ -3052,8 +3286,20 @@
         <f t="shared" si="2"/>
         <v>2.5118864315095815</v>
       </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="3"/>
+        <v>251.18864315095814</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.37202839212260463</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>440</v>
       </c>
@@ -3081,8 +3327,20 @@
         <f t="shared" si="2"/>
         <v>3.810240429946278</v>
       </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="3"/>
+        <v>381.02404299462779</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.13403626592130058</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>480</v>
       </c>
@@ -3110,8 +3368,20 @@
         <f t="shared" si="2"/>
         <v>3.6467396740964437</v>
       </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="3"/>
+        <v>364.67396740964438</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.24026256789657421</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>520</v>
       </c>
@@ -3139,8 +3409,20 @@
         <f t="shared" si="2"/>
         <v>7.5195261882835576</v>
       </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>520</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="3"/>
+        <v>751.95261882835575</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="4"/>
+        <v>0.44606272851606876</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>560</v>
       </c>
@@ -3167,6 +3449,24 @@
       <c r="I21">
         <f t="shared" si="2"/>
         <v>5.5316811976172326</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>560</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="3"/>
+        <v>553.16811976172323</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.2199786139779942E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L24" s="4" cm="1">
+        <f t="array" ref="L24">SUM(ABS(L3:L21))/COUNT(L3:L21)</f>
+        <v>0.46854471514242763</v>
       </c>
     </row>
   </sheetData>

--- a/Measurements/Test 2 - Chair obstacle/Statistics.xlsx
+++ b/Measurements/Test 2 - Chair obstacle/Statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\code\SerialReading\Measurements\Test 2 - Chair obstacle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\Proyects\Work\Vamia-SerialPortReading\Measurements\Test 2 - Chair obstacle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC884958-E3C0-40A0-BFE7-BC597729E2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5CF17D-1BAC-44FC-A5EE-2901D7929B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -897,61 +897,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>45.121629908943603</c:v>
+                  <c:v>45.421629908943608</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.44325981788721</c:v>
+                  <c:v>51.743259817887214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.141176258056511</c:v>
+                  <c:v>55.441176258056515</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.764889726830816</c:v>
+                  <c:v>58.06488972683082</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.8</c:v>
+                  <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.462806167000117</c:v>
+                  <c:v>61.762806167000122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.868688749242992</c:v>
+                  <c:v>63.168688749242996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.086519635774422</c:v>
+                  <c:v>64.38651963577442</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.160722607169419</c:v>
+                  <c:v>65.46072260716943</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.121629908943603</c:v>
+                  <c:v>66.421629908943601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67.784436075943717</c:v>
+                  <c:v>68.084436075943728</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>69.190318658186598</c:v>
+                  <c:v>69.490318658186609</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70.408149544718015</c:v>
+                  <c:v>70.708149544718026</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>71.482352516113025</c:v>
+                  <c:v>71.782352516113036</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72.44325981788721</c:v>
+                  <c:v>72.743259817887207</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>73.312506206209932</c:v>
+                  <c:v>73.612506206209943</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74.106065984887323</c:v>
+                  <c:v>74.406065984887334</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>74.836070216330782</c:v>
+                  <c:v>75.136070216330779</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>75.511948567130204</c:v>
+                  <c:v>75.811948567130202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,6 +1040,7 @@
         <c:axId val="72691471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2651,15 +2652,15 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:L21"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2667,13 +2668,13 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>59.8</v>
+        <v>60.1</v>
       </c>
       <c r="G1">
         <v>2.1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>1.3266499161421601</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -2702,7 +2703,7 @@
       </c>
       <c r="F3">
         <f>10*$G$1*LOG(A3/100,10)+$F$1</f>
-        <v>45.121629908943603</v>
+        <v>45.421629908943608</v>
       </c>
       <c r="H3">
         <f>A3/100</f>
@@ -2710,7 +2711,7 @@
       </c>
       <c r="I3">
         <f>POWER(10, (B3-$F$1)/(10*$G$1))</f>
-        <v>0.541169526546464</v>
+        <v>0.52365785090286621</v>
       </c>
       <c r="J3">
         <f>H3*100</f>
@@ -2718,14 +2719,14 @@
       </c>
       <c r="K3" s="2">
         <f>I3*100</f>
-        <v>54.116952654646397</v>
+        <v>52.365785090286622</v>
       </c>
       <c r="L3" s="3">
         <f>(K3-J3)/J3</f>
-        <v>1.7058476327323198</v>
+        <v>1.618289254514331</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>40</v>
       </c>
@@ -2743,7 +2744,7 @@
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F21" si="0">10*$G$1*LOG(A4/100,10)+$F$1</f>
-        <v>51.44325981788721</v>
+        <v>51.743259817887214</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H21" si="1">A4/100</f>
@@ -2751,7 +2752,7 @@
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I21" si="2">POWER(10, (B4-$F$1)/(10*$G$1))</f>
-        <v>1.1659144011798326</v>
+        <v>1.1281866396926792</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:K21" si="3">H4*100</f>
@@ -2759,14 +2760,14 @@
       </c>
       <c r="K4" s="2">
         <f t="shared" si="3"/>
-        <v>116.59144011798325</v>
+        <v>112.81866396926792</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" ref="L4:L21" si="4">(K4-J4)/J4</f>
-        <v>1.9147860029495813</v>
+        <v>1.820466599231698</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>60</v>
       </c>
@@ -2784,7 +2785,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>55.141176258056511</v>
+        <v>55.441176258056515</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -2792,7 +2793,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>1.5168840366944534</v>
+        <v>1.4677992676220697</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
@@ -2800,14 +2801,14 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" si="3"/>
-        <v>151.68840366944534</v>
+        <v>146.77992676220697</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="4"/>
-        <v>1.5281400611574223</v>
+        <v>1.4463321127034494</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>80</v>
       </c>
@@ -2825,7 +2826,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>57.764889726830816</v>
+        <v>58.06488972683082</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -2833,7 +2834,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>1.1659144011798326</v>
+        <v>1.1281866396926792</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
@@ -2841,14 +2842,14 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" si="3"/>
-        <v>116.59144011798325</v>
+        <v>112.81866396926792</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="4"/>
-        <v>0.45739300147479067</v>
+        <v>0.41023329961584898</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -2866,7 +2867,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>59.8</v>
+        <v>60.1</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -2874,7 +2875,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>1.068000432514576</v>
+        <v>1.0334410638805558</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
@@ -2882,14 +2883,14 @@
       </c>
       <c r="K7" s="2">
         <f t="shared" si="3"/>
-        <v>106.80004325145759</v>
+        <v>103.34410638805558</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="4"/>
-        <v>6.8000432514575951E-2</v>
+        <v>3.3441063880555788E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>120</v>
       </c>
@@ -2907,7 +2908,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>61.462806167000117</v>
+        <v>61.762806167000122</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -2915,7 +2916,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>0.91601959066105276</v>
+        <v>0.88637816192576302</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
@@ -2923,14 +2924,14 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" si="3"/>
-        <v>91.60195906610528</v>
+        <v>88.637816192576295</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="4"/>
-        <v>-0.23665034111578934</v>
+        <v>-0.26135153172853087</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>140</v>
       </c>
@@ -2948,7 +2949,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>62.868688749242992</v>
+        <v>63.168688749242996</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -2956,7 +2957,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>1.2181879120101162</v>
+        <v>1.1787686347935873</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
@@ -2964,14 +2965,14 @@
       </c>
       <c r="K9" s="2">
         <f t="shared" si="3"/>
-        <v>121.81879120101162</v>
+        <v>117.87686347935873</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="4"/>
-        <v>-0.12986577713563127</v>
+        <v>-0.15802240371886619</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>160</v>
       </c>
@@ -2989,7 +2990,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>64.086519635774422</v>
+        <v>64.38651963577442</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -2997,7 +2998,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>1.6200328072641321</v>
+        <v>1.567610252664948</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
@@ -3005,14 +3006,14 @@
       </c>
       <c r="K10" s="2">
         <f t="shared" si="3"/>
-        <v>162.00328072641321</v>
+        <v>156.76102526649481</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="4"/>
-        <v>1.2520504540082555E-2</v>
+        <v>-2.0243592084407423E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>180</v>
       </c>
@@ -3030,7 +3031,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>65.160722607169419</v>
+        <v>65.46072260716943</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -3038,7 +3039,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>1.5168840366944534</v>
+        <v>1.4677992676220697</v>
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
@@ -3046,14 +3047,14 @@
       </c>
       <c r="K11" s="2">
         <f t="shared" si="3"/>
-        <v>151.68840366944534</v>
+        <v>146.77992676220697</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="4"/>
-        <v>-0.15728664628085925</v>
+        <v>-0.1845559624321835</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>200</v>
       </c>
@@ -3071,7 +3072,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>66.121629908943603</v>
+        <v>66.421629908943601</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
@@ -3079,7 +3080,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>1.8478497974222927</v>
+        <v>1.7880553250745068</v>
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
@@ -3087,14 +3088,14 @@
       </c>
       <c r="K12" s="2">
         <f t="shared" si="3"/>
-        <v>184.78497974222927</v>
+        <v>178.80553250745069</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="4"/>
-        <v>-7.6075101288853655E-2</v>
+        <v>-0.10597233746274654</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>240</v>
       </c>
@@ -3112,7 +3113,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>67.784436075943717</v>
+        <v>68.084436075943728</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
@@ -3120,7 +3121,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>3.7275937203149403</v>
+        <v>3.6069727153262896</v>
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
@@ -3128,14 +3129,14 @@
       </c>
       <c r="K13" s="2">
         <f t="shared" si="3"/>
-        <v>372.75937203149402</v>
+        <v>360.69727153262897</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="4"/>
-        <v>0.55316405013122505</v>
+        <v>0.50290529805262074</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>280</v>
       </c>
@@ -3153,7 +3154,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>69.190318658186598</v>
+        <v>69.490318658186609</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
@@ -3161,7 +3162,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>3.810240429946278</v>
+        <v>3.6869450645195756</v>
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
@@ -3169,14 +3170,14 @@
       </c>
       <c r="K14" s="2">
         <f t="shared" si="3"/>
-        <v>381.02404299462779</v>
+        <v>368.69450645195758</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="4"/>
-        <v>0.3608001535522421</v>
+        <v>0.31676609447127707</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>320</v>
       </c>
@@ -3194,7 +3195,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>70.408149544718015</v>
+        <v>70.708149544718026</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
@@ -3202,7 +3203,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>2.6245062966121004</v>
+        <v>2.5395800383208273</v>
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
@@ -3210,14 +3211,14 @@
       </c>
       <c r="K15" s="2">
         <f t="shared" si="3"/>
-        <v>262.45062966121003</v>
+        <v>253.95800383208274</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="4"/>
-        <v>-0.17984178230871867</v>
+        <v>-0.20638123802474145</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>360</v>
       </c>
@@ -3235,7 +3236,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>71.482352516113025</v>
+        <v>71.782352516113036</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
@@ -3243,7 +3244,7 @@
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>2.4574019042602622</v>
+        <v>2.3778829680260167</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
@@ -3251,14 +3252,14 @@
       </c>
       <c r="K16" s="2">
         <f t="shared" si="3"/>
-        <v>245.74019042602623</v>
+        <v>237.78829680260168</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="4"/>
-        <v>-0.31738835992770492</v>
+        <v>-0.33947695332610645</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>400</v>
       </c>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>72.44325981788721</v>
+        <v>72.743259817887207</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
@@ -3284,7 +3285,7 @@
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>2.5118864315095815</v>
+        <v>2.4306044333844099</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
@@ -3292,14 +3293,14 @@
       </c>
       <c r="K17" s="2">
         <f t="shared" si="3"/>
-        <v>251.18864315095814</v>
+        <v>243.06044333844099</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="4"/>
-        <v>-0.37202839212260463</v>
+        <v>-0.39234889165389752</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>440</v>
       </c>
@@ -3317,7 +3318,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>73.312506206209932</v>
+        <v>73.612506206209943</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
@@ -3325,7 +3326,7 @@
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>3.810240429946278</v>
+        <v>3.6869450645195756</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
@@ -3333,14 +3334,14 @@
       </c>
       <c r="K18" s="2">
         <f t="shared" si="3"/>
-        <v>381.02404299462779</v>
+        <v>368.69450645195758</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="4"/>
-        <v>-0.13403626592130058</v>
+        <v>-0.16205793988191469</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>480</v>
       </c>
@@ -3358,7 +3359,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>74.106065984887323</v>
+        <v>74.406065984887334</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>3.6467396740964437</v>
+        <v>3.5287350208467494</v>
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
@@ -3374,14 +3375,14 @@
       </c>
       <c r="K19" s="2">
         <f t="shared" si="3"/>
-        <v>364.67396740964438</v>
+        <v>352.87350208467495</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="4"/>
-        <v>-0.24026256789657421</v>
+        <v>-0.26484687065692719</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>520</v>
       </c>
@@ -3399,7 +3400,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>74.836070216330782</v>
+        <v>75.136070216330779</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
@@ -3407,7 +3408,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>7.5195261882835576</v>
+        <v>7.2762022442265302</v>
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
@@ -3415,14 +3416,14 @@
       </c>
       <c r="K20" s="2">
         <f t="shared" si="3"/>
-        <v>751.95261882835575</v>
+        <v>727.620224422653</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="4"/>
-        <v>0.44606272851606876</v>
+        <v>0.39926966235125577</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>560</v>
       </c>
@@ -3440,7 +3441,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>75.511948567130204</v>
+        <v>75.811948567130202</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
@@ -3448,7 +3449,7 @@
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>5.5316811976172326</v>
+        <v>5.3526818228471083</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
@@ -3456,17 +3457,17 @@
       </c>
       <c r="K21" s="2">
         <f t="shared" si="3"/>
-        <v>553.16811976172323</v>
+        <v>535.26818228471086</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="4"/>
-        <v>-1.2199786139779942E-2</v>
+        <v>-4.4163960205873466E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L24" s="4" cm="1">
         <f t="array" ref="L24">SUM(ABS(L3:L21))/COUNT(L3:L21)</f>
-        <v>0.46854471514242763</v>
+        <v>0.45721710873669635</v>
       </c>
     </row>
   </sheetData>
